--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_12-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_12-22.xlsx
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>0:4</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>3:5</t>
   </si>
   <si>
     <t>PAROFEN 30 OBLONG TAB.</t>
@@ -964,13 +970,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -982,7 +988,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -990,17 +996,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1008,7 +1014,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1016,17 +1022,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1042,17 +1048,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>531</v>
+        <v>84</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1060,7 +1066,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1068,17 +1074,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1086,7 +1092,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1094,17 +1100,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>34</v>
+        <v>-96</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1126,11 +1132,11 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1152,7 +1158,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1172,17 +1178,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1190,7 +1196,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1198,17 +1204,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>40</v>
+        <v>-4</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1216,7 +1222,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1224,13 +1230,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1250,51 +1256,77 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="25" ht="26.25" customHeight="1">
-      <c r="K25" s="10">
-        <v>1236</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="11">
-        <v>43</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c t="s" r="F26" s="12">
+    <row r="25" ht="25.5" customHeight="1">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c t="s" r="B25" s="7">
         <v>44</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c t="s" r="I26" s="14">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c t="s" r="H25" s="8">
+        <v>9</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9">
+        <v>20</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c t="s" r="N25" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="K26" s="10">
+        <v>1240</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="11">
         <v>45</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c t="s" r="F27" s="12">
+        <v>46</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c t="s" r="I27" s="14">
+        <v>47</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="77">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1365,10 +1397,13 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:N27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
